--- a/excel/章节奖励表.xlsx
+++ b/excel/章节奖励表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="14700" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="levelRewardConfig" sheetId="1" r:id="rId1"/>
@@ -84,8 +84,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,13 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -123,17 +154,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,8 +168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,23 +184,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,22 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -220,13 +227,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,30 +471,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +500,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -517,17 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1108,16 +1108,16 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1134,7 +1134,7 @@
         <v>1000</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1142,16 +1142,16 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>1000</v>
       </c>
       <c r="E6" s="1">
-        <v>500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1159,16 +1159,16 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>1000</v>
       </c>
       <c r="E7" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="1">
         <v>10060</v>
@@ -1203,6 +1203,924 @@
       </c>
       <c r="E9" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10110</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10020</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10040</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10190</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13030</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10090</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13040</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10160</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10170</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>90</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13050</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10100</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13060</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>1130</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1140</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>1160</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>1170</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>1180</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>1190</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>1210</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>1220</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>1240</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>1270</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>50</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>1290</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10120</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10200</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>1330</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>50</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>1501</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>1502</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>1503</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>1504</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>1505</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>1506</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>1507</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>1508</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>1509</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>1510</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>1511</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E56" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>1512</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>1513</v>
+      </c>
+      <c r="B58" s="1">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>1514</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>1515</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>1516</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>1517</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>1518</v>
+      </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
